--- a/biology/Zoologie/Annonine/Annonine.xlsx
+++ b/biology/Zoologie/Annonine/Annonine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une annonine est un composé chimique de la famille des acétogénines présent dans les extraits de graines d'annone[1]. Certaines annonines sont utilisées pour produire des insecticides contre Helicoverpa et d'autres chenilles nuisibles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une annonine est un composé chimique de la famille des acétogénines présent dans les extraits de graines d'annone. Certaines annonines sont utilisées pour produire des insecticides contre Helicoverpa et d'autres chenilles nuisibles.
 </t>
         </is>
       </c>
